--- a/iwa_web_regression/Default.xlsx
+++ b/iwa_web_regression/Default.xlsx
@@ -185,7 +185,9 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -194,9 +196,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -232,10 +232,10 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -546,20 +546,20 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col min="1" max="4" width="9.41796875" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9.078125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" s="5" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="14.95" s="5" customFormat="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -567,11 +567,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
       <c r="D2" s="6"/>
     </row>
   </sheetData>

--- a/iwa_web_regression/Default.xlsx
+++ b/iwa_web_regression/Default.xlsx
@@ -185,9 +185,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -196,7 +194,9 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -232,15 +232,15 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -548,30 +548,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="4" width="9.41796875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.34765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.41796875" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9.078125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.95" s="5" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="14.95" s="4" customFormat="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="6"/>
     </row>
   </sheetData>
